--- a/ESTADO REQUERIMIENTOS INSTALACIONES ESPECIALES.xlsx
+++ b/ESTADO REQUERIMIENTOS INSTALACIONES ESPECIALES.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028C701-3E2D-40BE-9225-321FA4C52C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B2F22-036B-475F-90F8-9B999F360924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC209514-9DCD-40E1-853A-AC4BE316DEE1}"/>
+    <workbookView xWindow="9405" yWindow="1680" windowWidth="14505" windowHeight="11295" xr2:uid="{BC209514-9DCD-40E1-853A-AC4BE316DEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>ACCESS POINT</t>
   </si>
@@ -190,6 +188,9 @@
   </si>
   <si>
     <t>INSUMOS PARA MODULO DE CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADQUISICIÓN DE SISTEMA DE SWITCH DE AUDIO Y VIDEO </t>
   </si>
 </sst>
 </file>
@@ -294,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,9 +320,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,22 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A28FFC-58F9-4D7A-93F7-253C13DE4B04}">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
@@ -668,7 +666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -677,7 +675,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -692,7 +690,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -707,7 +705,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -722,7 +720,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -737,7 +735,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -752,7 +750,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -767,7 +765,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -782,7 +780,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
@@ -797,7 +795,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
@@ -806,7 +804,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -821,7 +819,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -836,7 +834,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
@@ -851,7 +849,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -866,7 +864,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
@@ -881,7 +879,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -896,7 +894,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -911,7 +909,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -926,7 +924,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
@@ -943,7 +941,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -958,7 +956,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
@@ -973,7 +971,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
@@ -990,7 +988,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +1003,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
@@ -1020,7 +1018,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1033,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1048,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1063,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
@@ -1080,33 +1078,33 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>28</v>
@@ -1119,9 +1117,9 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>47</v>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1134,9 +1132,9 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>48</v>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>28</v>
@@ -1149,9 +1147,9 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>49</v>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>28</v>
@@ -1164,9 +1162,9 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>50</v>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>28</v>
@@ -1178,6 +1176,21 @@
         <v>38</v>
       </c>
       <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
